--- a/ hyougen.xlsx
+++ b/ hyougen.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ひらがな</t>
     <phoneticPr fontId="1"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>Liệu sẽ có ích cho việc gì?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -477,7 +481,7 @@
   <dimension ref="B3:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,7 +529,9 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
